--- a/CSV/Zeszyt1.xlsx
+++ b/CSV/Zeszyt1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-10\Desktop\Jedzenie-i-napoje\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3535D420-BC5C-47A8-B1E6-E4C017ACBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B233385-A4EA-403E-BC7A-75AF652FE8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00E6A2A6-8301-4499-9CC6-CD5B160ACA70}"/>
   </bookViews>
